--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Supty</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>Bazer</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +440,12 @@
       <c r="D2">
         <v>150</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -500,6 +509,14 @@
       </c>
       <c r="D10">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Supty</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Bazer</t>
+  </si>
+  <si>
+    <t>shakk potol</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +437,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>

--- a/October.xlsx
+++ b/October.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Supty</t>
   </si>
@@ -59,6 +59,33 @@
   </si>
   <si>
     <t>shakk potol</t>
+  </si>
+  <si>
+    <t>daros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">morich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosola </t>
+  </si>
+  <si>
+    <t>alu</t>
+  </si>
+  <si>
+    <t>peag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korola </t>
+  </si>
+  <si>
+    <t>potol</t>
+  </si>
+  <si>
+    <t>Sorisha oil</t>
   </si>
 </sst>
 </file>
@@ -400,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +490,12 @@
       <c r="D3">
         <v>160</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -471,6 +504,12 @@
       <c r="D4">
         <v>30</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -479,6 +518,12 @@
       <c r="D5">
         <v>50</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -487,6 +532,12 @@
       <c r="D6">
         <v>25</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -495,6 +546,12 @@
       <c r="D7">
         <v>25</v>
       </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -503,6 +560,12 @@
       <c r="D8">
         <v>30</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -511,6 +574,12 @@
       <c r="D9">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -519,6 +588,12 @@
       <c r="D10">
         <v>40</v>
       </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -526,6 +601,14 @@
       </c>
       <c r="D11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Supty</t>
   </si>
@@ -64,28 +64,22 @@
     <t>daros</t>
   </si>
   <si>
-    <t xml:space="preserve">dhonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">morich </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mosola </t>
-  </si>
-  <si>
     <t>alu</t>
   </si>
   <si>
-    <t>peag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">korola </t>
-  </si>
-  <si>
-    <t>potol</t>
-  </si>
-  <si>
     <t>Sorisha oil</t>
+  </si>
+  <si>
+    <t>dhonia</t>
+  </si>
+  <si>
+    <t>mosola</t>
+  </si>
+  <si>
+    <t>peaj</t>
+  </si>
+  <si>
+    <t>kotola</t>
   </si>
 </sst>
 </file>
@@ -427,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,12 +484,6 @@
       <c r="D3">
         <v>160</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -504,12 +492,6 @@
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -518,12 +500,6 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -532,12 +508,6 @@
       <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -546,12 +516,6 @@
       <c r="D7">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -560,12 +524,6 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>75</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -574,12 +532,6 @@
       <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -588,12 +540,6 @@
       <c r="D10">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -605,10 +551,74 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Supty</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>kotola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chal </t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Mas +</t>
+  </si>
+  <si>
+    <t>Mas</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,6 +496,12 @@
       <c r="D3">
         <v>160</v>
       </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -618,6 +636,30 @@
         <v>8</v>
       </c>
       <c r="D20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
         <v>40</v>
       </c>
     </row>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Supty</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Mas</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukhe </t>
+  </si>
+  <si>
+    <t>chalkumra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sutki </t>
   </si>
 </sst>
 </file>
@@ -433,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +525,12 @@
       <c r="D4">
         <v>30</v>
       </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -518,6 +539,12 @@
       <c r="D5">
         <v>50</v>
       </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -526,6 +553,12 @@
       <c r="D6">
         <v>25</v>
       </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -534,6 +567,12 @@
       <c r="D7">
         <v>25</v>
       </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -542,6 +581,12 @@
       <c r="D8">
         <v>30</v>
       </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -661,6 +706,14 @@
       </c>
       <c r="D23">
         <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Supty</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t xml:space="preserve">sutki </t>
+  </si>
+  <si>
+    <t>chal</t>
+  </si>
+  <si>
+    <t>begun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korola </t>
+  </si>
+  <si>
+    <t>riksha</t>
   </si>
 </sst>
 </file>
@@ -451,7 +463,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +517,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -519,6 +537,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -533,6 +557,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -547,6 +577,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -561,6 +597,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Supty</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>riksha</t>
+  </si>
+  <si>
+    <t>patha kophe</t>
   </si>
 </sst>
 </file>
@@ -617,6 +620,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -631,6 +640,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Supty</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>patha kophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torkare </t>
+  </si>
+  <si>
+    <t>morich Dhoina Pata</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +660,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -662,6 +674,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -670,6 +688,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -771,6 +795,14 @@
       </c>
       <c r="D24">
         <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Supty</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>morich Dhoina Pata</t>
+  </si>
+  <si>
+    <t>piag</t>
+  </si>
+  <si>
+    <t>Pathakophe</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +708,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -710,6 +722,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -803,6 +821,38 @@
       </c>
       <c r="D25">
         <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Supty</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Pathakophe</t>
+  </si>
+  <si>
+    <t>fulkope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alu </t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,6 +861,54 @@
         <v>5</v>
       </c>
     </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Supty</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">alu </t>
+  </si>
+  <si>
+    <t>sutke+ kochu</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +745,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Supty</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>sutke+ kochu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lauShak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chichenga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">morich  </t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>ginga</t>
   </si>
 </sst>
 </file>
@@ -484,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +688,12 @@
       <c r="D9">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -759,6 +780,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -766,7 +793,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -774,7 +807,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
@@ -782,7 +821,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
@@ -790,7 +835,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -798,7 +849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -806,7 +857,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -814,7 +865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>24</v>
       </c>
@@ -822,7 +873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -830,7 +881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -838,7 +889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>10</v>
       </c>
@@ -846,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>8</v>
       </c>
@@ -854,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -862,7 +913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -870,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>12</v>
       </c>
@@ -878,7 +929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -886,7 +937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -916,6 +967,14 @@
       </c>
       <c r="D35">
         <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/October.xlsx
+++ b/October.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Supty</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>ginga</t>
+  </si>
+  <si>
+    <t>Chal</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per person</t>
+  </si>
+  <si>
+    <t>Due</t>
   </si>
 </sst>
 </file>
@@ -499,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +525,7 @@
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,6 +863,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>1150</v>
+      </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -945,7 +964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -953,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -961,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -969,12 +988,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36">
         <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>SUM(B2:B21)</f>
+        <v>1995</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D2:D38)</f>
+        <v>1935</v>
+      </c>
+      <c r="F39">
+        <f>SUM(F2:F9)</f>
+        <v>1160</v>
+      </c>
+      <c r="H39">
+        <f>SUM(B39:F39)</f>
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <f>SUM(H42-B39)</f>
+        <v>-298.33333333333326</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <f>SUM(H42-D39)</f>
+        <v>-238.33333333333326</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <f>SUM(H42-F39)</f>
+        <v>536.66666666666674</v>
+      </c>
+      <c r="H42">
+        <f>SUM(H39/3)</f>
+        <v>1696.6666666666667</v>
       </c>
     </row>
   </sheetData>
